--- a/fuentes/contenidos/grado08/guion02/SolicitudGrafica_CS_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/SolicitudGrafica_CS_08_02_CO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="193">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -520,67 +520,145 @@
     <t>Solicitud gráfica de recurso:</t>
   </si>
   <si>
-    <t>http://commons.wikimedia.org/wiki/File:Voltaire_Philosophy_of_Newton_frontispiece.jpg#filelinks</t>
-  </si>
-  <si>
     <t>Cuaderno de Estudio</t>
   </si>
   <si>
     <t>Vertical</t>
   </si>
   <si>
-    <t>CS_08_01_CO</t>
-  </si>
-  <si>
-    <t>El pensamiento liberal y las revoluciones</t>
-  </si>
-  <si>
     <t>Ana Maria Lara</t>
   </si>
   <si>
-    <t>http://commons.wikimedia.org/wiki/File:Rigaud_Hyacinthe_-_Louis_XIV,_roi_de_France.jpg?uselang=es</t>
-  </si>
-  <si>
-    <t>4º ESO/ Ciencias sociales, geografía e historia/El fin del Antiguo Régimen/Las ideas de la Ilustración/El despotismo ilustrado.</t>
-  </si>
-  <si>
-    <t>http://commons.wikimedia.org/wiki/File:Troisordres.jpg?uselang=es</t>
-  </si>
-  <si>
-    <t>http://commons.wikimedia.org/wiki/File:Jean-Fran%C3%A7ois_Millet_(II)_001.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://pt.wikipedia.org/wiki/Com%C3%A9rcio_Triangular#mediaviewer/File:Triangle_trade2.png
-4 Eso Ciencias Sociales, geografía e historia/Fin del Antiguo Régimen/El pensamiento liberal.
-</t>
-  </si>
-  <si>
-    <t>por favor eleboarar imagen a partir del modelo de la URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aula planeta.
-4 Eso Ciencias Sociales, geografía e historia/Fin del Antiguo Régimen/El pensamiento liberal.
-</t>
-  </si>
-  <si>
-    <t>Aula planeta.http://commons.wikimedia.org/wiki/File:Eug%C3%A8ne_Delacroix_-_La_libert%C3%A9_guidant_le_peuple.jpg?uselang=es</t>
-  </si>
-  <si>
     <t>Horizontal</t>
   </si>
   <si>
-    <t>http://commons.wikimedia.org/wiki/File:Houghton_Portrait_File_-_Charles_I_of_England_beheaded.jpg?uselang=es</t>
-  </si>
-  <si>
-    <t>4º ESO/ Ciencias sociales, geografía e historia/El fin del Antiguo Régimen/la revolución americana.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aula planeta
-4º ESO/ Ciencias sociales, geografía e historia/El fin del Antiguo Régimen/La Revolución francesa
-</t>
-  </si>
-  <si>
     <t>Fotografía</t>
+  </si>
+  <si>
+    <t>CS_08_02_CO</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:TupacAmaruII.jpg?uselang=es</t>
+  </si>
+  <si>
+    <t>Túpac Amaru II</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://commons.wikimedia.org/wiki/File:Rey_Carlos_II.jpg?uselang=es</t>
+  </si>
+  <si>
+    <t>Expulsión de los jesuitas</t>
+  </si>
+  <si>
+    <t>ttp://images.fineartamerica.com/images-medium-large/spain-expulsion-of-jesuits-granger.jpg</t>
+  </si>
+  <si>
+    <t>Carlos II</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=00096A01&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La coronación de Napoleón, </t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=0001J001&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Fernando VII</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Ignacio_Mar%C3%ADa_Barreda_-_Las_castas_mexicanas.jpg</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Jos%C3%A9_Prudencio_Padilla.jpg</t>
+  </si>
+  <si>
+    <t>Castas en América</t>
+  </si>
+  <si>
+    <t>José Prudencio Padilla</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/Category:Francisco_de_Miranda?uselang=es#/media/File:Francisco_miranda_in_cadiz.jpg</t>
+  </si>
+  <si>
+    <t>Miranda en la Carraca</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Alexandre_Petion_pr%C3%A9sident_de_la_R%C3%A9publique_d%27Hayti_BNF_Gallica.jpg?uselang=es</t>
+  </si>
+  <si>
+    <t>Pétion</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Pablo-morillo.jpg</t>
+  </si>
+  <si>
+    <t>Pablo Morillo</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Martin_Tovar_y_Tovar_10.JPG?uselang=es</t>
+  </si>
+  <si>
+    <t>Batalla Carabobo</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Muerte_de_sucre.jpg</t>
+  </si>
+  <si>
+    <t>Muerte de Sucre</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=553115&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Smartin.JPG</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idpack=9&amp;idpil=000GYM01&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t>Bolívar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detalle del Fresco de la independencia, 1960-1961, por Juan O'Gorman (Museo Nacional de Historia, México D.F.). </t>
+  </si>
+  <si>
+    <t>José de San Martin</t>
+  </si>
+  <si>
+    <t>http://aulaplaneta.planetasaber.com/encyclopedia/default.asp?idreg=98112&amp;ruta=Buscador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agustín de Iturbide y el virrey O'Donojú </t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Proclama_de_libertad_(indep._Centroam%C3%A9rica).jpg?uselang=es</t>
+  </si>
+  <si>
+    <t>http://bdh-rd.bne.es/viewer.vm?pid=d-1557397</t>
+  </si>
+  <si>
+    <t>Independencia Salvador</t>
+  </si>
+  <si>
+    <t>Juan Manuel de Rosas</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Jos%C3%A9_Mar%C3%ADa_Obando_by_Espinosa.jpg</t>
+  </si>
+  <si>
+    <t>Obando</t>
+  </si>
+  <si>
+    <t>http://commons.wikimedia.org/wiki/File:Civilizaci%C3%B3n_y_Barbarie_Sarmiento_portada.jpg?uselang=es</t>
+  </si>
+  <si>
+    <t>Carátula libro Facundo</t>
+  </si>
+  <si>
+    <t>Independencia y nuevos Estados en América</t>
   </si>
 </sst>
 </file>
@@ -590,7 +668,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -726,6 +804,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1276,7 +1360,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1343,12 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1572,6 +1650,30 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2006,7 +2108,7 @@
       <sheetName val="Definición técnica de imagenes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="6">
           <cell r="A6" t="str">
@@ -2031,6 +2133,8 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
+          <cell r="F3"/>
+          <cell r="G3"/>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2051,6 +2155,7 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G4"/>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2071,6 +2176,7 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G5"/>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2114,6 +2220,7 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G7"/>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2134,6 +2241,7 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G8"/>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2154,6 +2262,7 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2171,6 +2280,8 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
+          <cell r="F10"/>
+          <cell r="G10"/>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2191,6 +2302,7 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2211,6 +2323,7 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G12"/>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2225,9 +2338,11 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
+          <cell r="E13"/>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
+          <cell r="G13"/>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2242,9 +2357,11 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
+          <cell r="E14"/>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
+          <cell r="G14"/>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2262,11 +2379,14 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
+          <cell r="F15"/>
+          <cell r="G15"/>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
+          <cell r="B16"/>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2279,11 +2399,13 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
+          <cell r="G16"/>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
+          <cell r="B17"/>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2298,6 +2420,7 @@
             <v>med =
 378 x 268 px</v>
           </cell>
+          <cell r="G17"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2314,7 +2437,7 @@
       <sheetName val="Definición técnica de imagenes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="15">
           <cell r="A15" t="str">
@@ -2339,6 +2462,8 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
+          <cell r="F3"/>
+          <cell r="G3"/>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2359,6 +2484,7 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G4"/>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2379,6 +2505,7 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G5"/>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2422,6 +2549,7 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G7"/>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2442,6 +2570,7 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G8"/>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2462,6 +2591,7 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2479,6 +2609,8 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
+          <cell r="F10"/>
+          <cell r="G10"/>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2499,6 +2631,7 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2519,6 +2652,7 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G12"/>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2533,9 +2667,11 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
+          <cell r="E13"/>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
+          <cell r="G13"/>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2550,9 +2686,11 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
+          <cell r="E14"/>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
+          <cell r="G14"/>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2570,11 +2708,14 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
+          <cell r="F15"/>
+          <cell r="G15"/>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
+          <cell r="B16"/>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2587,11 +2728,13 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
+          <cell r="G16"/>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
+          <cell r="B17"/>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2606,6 +2749,7 @@
             <v>med =
 378 x 268 px</v>
           </cell>
+          <cell r="G17"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2930,7 +3074,7 @@
       <sheetName val="Definición técnica de imagenes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="0"/>
       <sheetData sheetId="1">
         <row r="8">
           <cell r="A8" t="str">
@@ -2955,6 +3099,8 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
+          <cell r="F3"/>
+          <cell r="G3"/>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2975,6 +3121,7 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G4"/>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2995,6 +3142,7 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G5"/>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -3038,6 +3186,7 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G7"/>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -3058,6 +3207,7 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G8"/>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -3078,6 +3228,7 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G9"/>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -3095,6 +3246,8 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
+          <cell r="F10"/>
+          <cell r="G10"/>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -3115,6 +3268,7 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -3135,6 +3289,7 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
+          <cell r="G12"/>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -3149,9 +3304,11 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
+          <cell r="E13"/>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
+          <cell r="G13"/>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -3166,9 +3323,11 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
+          <cell r="E14"/>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
+          <cell r="G14"/>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -3186,11 +3345,14 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
+          <cell r="F15"/>
+          <cell r="G15"/>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
+          <cell r="B16"/>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -3203,11 +3365,13 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
+          <cell r="G16"/>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
+          <cell r="B17"/>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -3222,6 +3386,7 @@
             <v>med =
 378 x 268 px</v>
           </cell>
+          <cell r="G17"/>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -5386,7 +5551,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5414,8 +5579,8 @@
       <c r="D1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
       <c r="J1" s="16"/>
       <c r="K1" s="16"/>
     </row>
@@ -5424,16 +5589,16 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="84"/>
-      <c r="F2" s="76" t="s">
+      <c r="D2" s="82"/>
+      <c r="F2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
       <c r="J2" s="16"/>
     </row>
     <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
@@ -5441,16 +5606,16 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="85">
+      <c r="C3" s="83">
         <v>8</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="F3" s="78">
+      <c r="D3" s="84"/>
+      <c r="F3" s="76">
         <v>42067</v>
       </c>
-      <c r="G3" s="79"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
       <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
@@ -5458,19 +5623,19 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="85" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="86"/>
+      <c r="C4" s="112" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="84"/>
       <c r="E4" s="5"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="G4" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
@@ -5479,20 +5644,20 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="88"/>
+      <c r="C5" s="85" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="86"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="49" t="str">
+      <c r="F5" s="47" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
         <v/>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="73"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="71"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -5504,20 +5669,20 @@
       <c r="E6" s="7"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="34" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D7" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>40</v>
       </c>
       <c r="F7" s="1"/>
@@ -5533,12 +5698,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="81"/>
-      <c r="I8" s="82"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="80"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -5548,7 +5713,7 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="25" t="s">
@@ -5563,16 +5728,16 @@
       <c r="E9" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="72" t="s">
+      <c r="F9" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="72" t="s">
+      <c r="H9" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="I9" s="72" t="s">
+      <c r="I9" s="70" t="s">
         <v>138</v>
       </c>
       <c r="J9" s="25" t="s">
@@ -5582,27 +5747,27 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="str">
-        <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),"IMG01","")</f>
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG01","")</f>
         <v>IMG01</v>
       </c>
-      <c r="B10" s="75" t="s">
-        <v>146</v>
+      <c r="B10" s="73" t="s">
+        <v>152</v>
       </c>
       <c r="C10" s="27" t="str">
         <f>IF(OR(B10&lt;&gt;Ayuda!A5,J10&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I10="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_08_01_CO_IMG01_small</v>
+        <v>CS_08_02_CO_IMG01_small</v>
       </c>
       <c r="G10" s="14" t="str">
         <f>IF(F10&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -5610,36 +5775,38 @@
       </c>
       <c r="H10" s="14" t="str">
         <f t="shared" ref="H10:H20" si="0">IF(I10&lt;&gt;"",IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),CONCATENATE($C$7,"_",$A10,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v>CS_08_01_CO_IMG01_zoom</v>
+        <v>CS_08_02_CO_IMG01_zoom</v>
       </c>
       <c r="I10" s="14" t="str">
         <f>IF(OR(B10&lt;&gt;"",J10&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J10" s="14"/>
+      <c r="J10" s="14" t="s">
+        <v>153</v>
+      </c>
       <c r="K10" s="19"/>
     </row>
-    <row r="11" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG02","")</f>
         <v>IMG02</v>
       </c>
-      <c r="B11" s="75" t="s">
-        <v>152</v>
+      <c r="B11" s="73" t="s">
+        <v>154</v>
       </c>
       <c r="C11" s="27" t="str">
-        <f>IF(OR(B11&lt;&gt;[1]Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B11&lt;&gt;Ayuda!A6,J11&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F11" s="14" t="str">
         <f t="shared" ref="F11:F20" si="1">IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),CONCATENATE($C$7,"_",$A11,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I11="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v>CS_08_01_CO_IMG02_small</v>
+        <v>CS_08_02_CO_IMG02_small</v>
       </c>
       <c r="G11" s="14" t="str">
         <f>IF(F11&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[1]Definición técnica de imagenes'!$E$15,'[1]Definición técnica de imagenes'!$F$13)),'[1]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5647,36 +5814,38 @@
       </c>
       <c r="H11" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG02_zoom</v>
+        <v>CS_08_02_CO_IMG02_zoom</v>
       </c>
       <c r="I11" s="14" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[1]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="14"/>
+      <c r="J11" s="105" t="s">
+        <v>157</v>
+      </c>
       <c r="K11" s="19"/>
     </row>
-    <row r="12" spans="1:16" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG03","")</f>
         <v>IMG03</v>
       </c>
-      <c r="B12" s="75" t="s">
-        <v>153</v>
+      <c r="B12" s="73" t="s">
+        <v>156</v>
       </c>
       <c r="C12" s="27" t="str">
-        <f>IF(OR(B12&lt;&gt;[2]Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B12&lt;&gt;Ayuda!A7,J12&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F12" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG03_small</v>
+        <v>CS_08_02_CO_IMG03_small</v>
       </c>
       <c r="G12" s="14" t="str">
         <f>IF(F12&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[2]Definición técnica de imagenes'!$E$15,'[2]Definición técnica de imagenes'!$F$13)),'[2]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5684,36 +5853,38 @@
       </c>
       <c r="H12" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG03_zoom</v>
+        <v>CS_08_02_CO_IMG03_zoom</v>
       </c>
       <c r="I12" s="14" t="str">
         <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[2]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[2]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J12" s="14"/>
+      <c r="J12" s="14" t="s">
+        <v>155</v>
+      </c>
       <c r="K12" s="19"/>
     </row>
-    <row r="13" spans="1:16" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="str">
-        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),"IMG04","")</f>
+    <row r="13" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG04","")</f>
         <v>IMG04</v>
       </c>
-      <c r="B13" s="75" t="s">
-        <v>154</v>
+      <c r="B13" s="73" t="s">
+        <v>158</v>
       </c>
       <c r="C13" s="27" t="str">
-        <f>IF(OR(B13&lt;&gt;[3]Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B13&lt;&gt;Ayuda!A8,J13&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG04_small</v>
+        <v>CS_08_02_CO_IMG04_small</v>
       </c>
       <c r="G13" s="14" t="str">
         <f>IF(F13&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[3]Definición técnica de imagenes'!$E$15,'[3]Definición técnica de imagenes'!$F$13)),'[3]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5721,36 +5892,38 @@
       </c>
       <c r="H13" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG04_zoom</v>
+        <v>CS_08_02_CO_IMG04_zoom</v>
       </c>
       <c r="I13" s="14" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[3]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="14"/>
+      <c r="J13" s="105" t="s">
+        <v>159</v>
+      </c>
       <c r="K13" s="19"/>
     </row>
-    <row r="14" spans="1:16" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),"IMG05","")</f>
         <v>IMG05</v>
       </c>
-      <c r="B14" s="75" t="s">
-        <v>155</v>
+      <c r="B14" s="73" t="s">
+        <v>160</v>
       </c>
       <c r="C14" s="27" t="str">
-        <f>IF(OR(B14&lt;&gt;[4]Ayuda!A9,J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B14&lt;&gt;Ayuda!A9,J14&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F14" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG05_small</v>
+        <v>CS_08_02_CO_IMG05_small</v>
       </c>
       <c r="G14" s="14" t="str">
         <f>IF(F14&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[4]Definición técnica de imagenes'!$E$15,'[4]Definición técnica de imagenes'!$F$13)),'[4]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5758,36 +5931,38 @@
       </c>
       <c r="H14" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG05_zoom</v>
+        <v>CS_08_02_CO_IMG05_zoom</v>
       </c>
       <c r="I14" s="14" t="str">
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[4]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="14"/>
+      <c r="J14" s="105" t="s">
+        <v>161</v>
+      </c>
       <c r="K14" s="19"/>
     </row>
-    <row r="15" spans="1:16" s="12" customFormat="1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="str">
-        <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),"IMG06","")</f>
+    <row r="15" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG06","")</f>
         <v>IMG06</v>
       </c>
-      <c r="B15" s="75" t="s">
-        <v>156</v>
+      <c r="B15" s="73" t="s">
+        <v>162</v>
       </c>
       <c r="C15" s="27" t="str">
-        <f>IF(OR(B15&lt;&gt;[5]Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B15&lt;&gt;Ayuda!A10,J15&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG06_small</v>
+        <v>CS_08_02_CO_IMG06_small</v>
       </c>
       <c r="G15" s="14" t="str">
         <f>IF(F15&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[5]Definición técnica de imagenes'!$E$15,'[5]Definición técnica de imagenes'!$F$13)),'[5]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5795,38 +5970,38 @@
       </c>
       <c r="H15" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG06_zoom</v>
+        <v>CS_08_02_CO_IMG06_zoom</v>
       </c>
       <c r="I15" s="14" t="str">
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>157</v>
+      <c r="J15" s="105" t="s">
+        <v>164</v>
       </c>
       <c r="K15" s="19"/>
     </row>
-    <row r="16" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),"IMG07","")</f>
         <v>IMG07</v>
       </c>
-      <c r="B16" s="75" t="s">
-        <v>158</v>
+      <c r="B16" s="73" t="s">
+        <v>163</v>
       </c>
       <c r="C16" s="27" t="str">
-        <f>IF(OR(B16&lt;&gt;[6]Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B16&lt;&gt;Ayuda!A11,J16&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F16" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG07_small</v>
+        <v>CS_08_02_CO_IMG07_small</v>
       </c>
       <c r="G16" s="14" t="str">
         <f>IF(F16&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[6]Definición técnica de imagenes'!$E$15,'[6]Definición técnica de imagenes'!$F$13)),'[6]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5834,36 +6009,38 @@
       </c>
       <c r="H16" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG07_zoom</v>
+        <v>CS_08_02_CO_IMG07_zoom</v>
       </c>
       <c r="I16" s="14" t="str">
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="14"/>
+      <c r="J16" s="105" t="s">
+        <v>165</v>
+      </c>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="1:11" s="12" customFormat="1" ht="126" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),"IMG08","")</f>
         <v>IMG08</v>
       </c>
-      <c r="B17" s="75" t="s">
-        <v>159</v>
+      <c r="B17" s="73" t="s">
+        <v>166</v>
       </c>
       <c r="C17" s="27" t="str">
-        <f>IF(OR(B17&lt;&gt;[7]Ayuda!A12,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B17&lt;&gt;Ayuda!A12,J17&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F17" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG08_small</v>
+        <v>CS_08_02_CO_IMG08_small</v>
       </c>
       <c r="G17" s="14" t="str">
         <f>IF(F17&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[7]Definición técnica de imagenes'!$E$15,'[7]Definición técnica de imagenes'!$F$13)),'[7]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5871,36 +6048,38 @@
       </c>
       <c r="H17" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG08_zoom</v>
+        <v>CS_08_02_CO_IMG08_zoom</v>
       </c>
       <c r="I17" s="14" t="str">
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="14"/>
+      <c r="J17" s="105" t="s">
+        <v>167</v>
+      </c>
       <c r="K17" s="19"/>
     </row>
-    <row r="18" spans="1:11" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),"IMG09","")</f>
         <v>IMG09</v>
       </c>
-      <c r="B18" s="75" t="s">
-        <v>161</v>
+      <c r="B18" s="73" t="s">
+        <v>168</v>
       </c>
       <c r="C18" s="27" t="str">
-        <f>IF(OR(B18&lt;&gt;[8]Ayuda!A13,J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B18&lt;&gt;Ayuda!A13,J18&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F18" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG09_small</v>
+        <v>CS_08_02_CO_IMG09_small</v>
       </c>
       <c r="G18" s="14" t="str">
         <f>IF(F18&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[8]Definición técnica de imagenes'!$E$15,'[8]Definición técnica de imagenes'!$F$13)),'[8]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5908,36 +6087,38 @@
       </c>
       <c r="H18" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG09_zoom</v>
+        <v>CS_08_02_CO_IMG09_zoom</v>
       </c>
       <c r="I18" s="14" t="str">
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="14"/>
+      <c r="J18" s="105" t="s">
+        <v>169</v>
+      </c>
       <c r="K18" s="19"/>
     </row>
-    <row r="19" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),"IMG10","")</f>
         <v>IMG10</v>
       </c>
-      <c r="B19" s="75" t="s">
-        <v>162</v>
+      <c r="B19" s="73" t="s">
+        <v>170</v>
       </c>
       <c r="C19" s="27" t="str">
-        <f>IF(OR(B19&lt;&gt;[9]Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B19&lt;&gt;Ayuda!A14,J19&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="F19" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG10_small</v>
+        <v>CS_08_02_CO_IMG10_small</v>
       </c>
       <c r="G19" s="14" t="str">
         <f>IF(F19&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[9]Definición técnica de imagenes'!$E$15,'[9]Definición técnica de imagenes'!$F$13)),'[9]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5945,36 +6126,38 @@
       </c>
       <c r="H19" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG10_zoom</v>
+        <v>CS_08_02_CO_IMG10_zoom</v>
       </c>
       <c r="I19" s="14" t="str">
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="14"/>
+      <c r="J19" s="105" t="s">
+        <v>171</v>
+      </c>
       <c r="K19" s="19"/>
     </row>
-    <row r="20" spans="1:11" s="12" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),"IMG11","")</f>
         <v>IMG11</v>
       </c>
-      <c r="B20" s="75" t="s">
-        <v>163</v>
+      <c r="B20" s="73" t="s">
+        <v>172</v>
       </c>
       <c r="C20" s="27" t="str">
-        <f>IF(OR(B20&lt;&gt;[10]Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B20&lt;&gt;Ayuda!A15,J20&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="F20" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>CS_08_01_CO_IMG11_small</v>
+        <v>CS_08_02_CO_IMG11_small</v>
       </c>
       <c r="G20" s="14" t="str">
         <f>IF(F20&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'[10]Definición técnica de imagenes'!$E$15,'[10]Definición técnica de imagenes'!$F$13)),'[10]Definición técnica de imagenes'!$E$16),"")</f>
@@ -5982,276 +6165,371 @@
       </c>
       <c r="H20" s="14" t="str">
         <f t="shared" si="0"/>
-        <v>CS_08_01_CO_IMG11_zoom</v>
+        <v>CS_08_02_CO_IMG11_zoom</v>
       </c>
       <c r="I20" s="14" t="str">
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="14"/>
+      <c r="J20" s="105" t="s">
+        <v>173</v>
+      </c>
       <c r="K20" s="19"/>
     </row>
-    <row r="21" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13" t="str">
-        <f t="shared" ref="A21:A30" si="2">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE(LEFT(A20,3),IF(MID(A20,4,2)+1&lt;10,CONCATENATE("0",MID(A20,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B21" s="29"/>
+    <row r="21" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG12","")</f>
+        <v>IMG12</v>
+      </c>
+      <c r="B21" s="107" t="s">
+        <v>174</v>
+      </c>
       <c r="C21" s="27" t="str">
-        <f t="shared" ref="C21:C22" si="3">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
-        <v/>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
+        <f>IF(OR(B21&lt;&gt;Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="F21" s="14" t="str">
-        <f t="shared" ref="F21:F74" si="4">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
-        <v/>
+        <f t="shared" ref="F21:F74" si="2">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_08_02_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
         <f>IF(F21&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" ref="H21:H74" si="5">IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
-        <v/>
+        <f t="shared" ref="H21:H74" si="3">IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_08_02_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J21" s="21"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J21" s="108" t="s">
+        <v>175</v>
+      </c>
       <c r="K21" s="21"/>
     </row>
-    <row r="22" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="str">
+    <row r="22" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A22" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG13","")</f>
+        <v>IMG13</v>
+      </c>
+      <c r="B22" s="109" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="27" t="str">
+        <f>IF(OR(B22&lt;&gt;Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="27" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG13_small</v>
       </c>
       <c r="G22" s="14" t="str">
         <f>IF(F22&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H22" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG13_zoom</v>
       </c>
       <c r="I22" s="14" t="str">
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J22" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J22" s="105" t="s">
+        <v>179</v>
+      </c>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="str">
+    <row r="23" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG14","")</f>
+        <v>IMG14</v>
+      </c>
+      <c r="B23" s="107" t="s">
+        <v>177</v>
+      </c>
+      <c r="C23" s="27" t="str">
+        <f>IF(OR(B23&lt;&gt;Ayuda!A18,J23&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG14_small</v>
       </c>
       <c r="G23" s="14" t="str">
         <f>IF(F23&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H23" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG14_zoom</v>
       </c>
       <c r="I23" s="14" t="str">
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J23" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J23" s="110" t="s">
+        <v>181</v>
+      </c>
       <c r="K23" s="19"/>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="str">
+    <row r="24" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG15","")</f>
+        <v>IMG15</v>
+      </c>
+      <c r="B24" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="27" t="str">
+        <f>IF(OR(B24&lt;&gt;Ayuda!A19,J24&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D24" s="105" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG15_small</v>
       </c>
       <c r="G24" s="14" t="str">
         <f>IF(F24&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H24" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG15_zoom</v>
       </c>
       <c r="I24" s="14" t="str">
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J24" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J24" s="105" t="s">
+        <v>180</v>
+      </c>
       <c r="K24" s="15"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="str">
+    <row r="25" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+      <c r="A25" s="106" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG16","")</f>
+        <v>IMG16</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>182</v>
+      </c>
+      <c r="C25" s="27" t="str">
+        <f>IF(OR(B25&lt;&gt;Ayuda!A20,J25&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F25" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG16_small</v>
       </c>
       <c r="G25" s="14" t="str">
         <f>IF(F25&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H25" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG16_zoom</v>
       </c>
       <c r="I25" s="14" t="str">
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J25" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J25" s="105" t="s">
+        <v>183</v>
+      </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG18","")</f>
+        <v>IMG18</v>
+      </c>
+      <c r="B26" s="107" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="27" t="str">
+        <f>IF(OR(B26&lt;&gt;Ayuda!A21,J26&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG18_small</v>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H26" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG18_zoom</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J26" s="14"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J26" s="105" t="s">
+        <v>186</v>
+      </c>
       <c r="K26" s="19"/>
     </row>
-    <row r="27" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG20","")</f>
+        <v>IMG20</v>
+      </c>
+      <c r="B27" s="107" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="27" t="str">
+        <f>IF(OR(B27&lt;&gt;Ayuda!A22,J27&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG20_small</v>
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H27" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG20_zoom</v>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J27" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J27" s="110" t="s">
+        <v>187</v>
+      </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),"IMG19","")</f>
+        <v>IMG19</v>
+      </c>
+      <c r="B28" s="111" t="s">
+        <v>188</v>
+      </c>
+      <c r="C28" s="27" t="str">
+        <f>IF(OR(B28&lt;&gt;Ayuda!A23,J28&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG19_small</v>
       </c>
       <c r="G28" s="14" t="str">
         <f>IF(F28&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H28" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J28" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J28" s="110" t="s">
+        <v>189</v>
+      </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
+        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),"IMG20","")</f>
+        <v>IMG20</v>
+      </c>
+      <c r="B29" s="107" t="s">
+        <v>190</v>
+      </c>
+      <c r="C29" s="27" t="str">
+        <f>IF(OR(B29&lt;&gt;Ayuda!A24,J29&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E29" s="105" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14" t="str">
-        <f t="shared" si="4"/>
-        <v/>
+        <v>CS_08_02_CO_IMG20_small</v>
       </c>
       <c r="G29" s="14" t="str">
         <f>IF(F29&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H29" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
+        <f t="shared" si="3"/>
+        <v>CS_08_02_CO_IMG20_zoom</v>
       </c>
       <c r="I29" s="14" t="str">
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J29" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J29" s="110" t="s">
+        <v>191</v>
+      </c>
       <c r="K29" s="19"/>
     </row>
     <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A21:A30" si="4">IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(LEFT(A29,3),IF(MID(A29,4,2)+1&lt;10,CONCATENATE("0",MID(A29,4,2)+1))),"")</f>
         <v/>
       </c>
       <c r="B30" s="28"/>
@@ -6259,7 +6537,7 @@
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
       <c r="F30" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G30" s="14" t="str">
@@ -6267,7 +6545,7 @@
         <v/>
       </c>
       <c r="H30" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I30" s="14" t="str">
@@ -6284,7 +6562,7 @@
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
       <c r="F31" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G31" s="14" t="str">
@@ -6292,7 +6570,7 @@
         <v/>
       </c>
       <c r="H31" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I31" s="14" t="str">
@@ -6309,7 +6587,7 @@
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G32" s="14" t="str">
@@ -6317,7 +6595,7 @@
         <v/>
       </c>
       <c r="H32" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I32" s="14" t="str">
@@ -6334,7 +6612,7 @@
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G33" s="14" t="str">
@@ -6342,7 +6620,7 @@
         <v/>
       </c>
       <c r="H33" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I33" s="14" t="str">
@@ -6359,7 +6637,7 @@
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G34" s="14" t="str">
@@ -6367,7 +6645,7 @@
         <v/>
       </c>
       <c r="H34" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I34" s="14" t="str">
@@ -6384,7 +6662,7 @@
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G35" s="14" t="str">
@@ -6392,7 +6670,7 @@
         <v/>
       </c>
       <c r="H35" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I35" s="14" t="str">
@@ -6404,12 +6682,12 @@
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G36" s="14" t="str">
@@ -6417,7 +6695,7 @@
         <v/>
       </c>
       <c r="H36" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I36" s="14" t="str">
@@ -6434,7 +6712,7 @@
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G37" s="14" t="str">
@@ -6442,7 +6720,7 @@
         <v/>
       </c>
       <c r="H37" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I37" s="14" t="str">
@@ -6454,12 +6732,12 @@
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G38" s="14" t="str">
@@ -6467,7 +6745,7 @@
         <v/>
       </c>
       <c r="H38" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I38" s="14" t="str">
@@ -6484,7 +6762,7 @@
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G39" s="14" t="str">
@@ -6492,7 +6770,7 @@
         <v/>
       </c>
       <c r="H39" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I39" s="14" t="str">
@@ -6509,7 +6787,7 @@
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G40" s="14" t="str">
@@ -6517,7 +6795,7 @@
         <v/>
       </c>
       <c r="H40" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I40" s="14" t="str">
@@ -6534,7 +6812,7 @@
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G41" s="14" t="str">
@@ -6542,7 +6820,7 @@
         <v/>
       </c>
       <c r="H41" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I41" s="14" t="str">
@@ -6559,7 +6837,7 @@
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G42" s="14" t="str">
@@ -6567,7 +6845,7 @@
         <v/>
       </c>
       <c r="H42" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I42" s="14" t="str">
@@ -6584,7 +6862,7 @@
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G43" s="14" t="str">
@@ -6592,7 +6870,7 @@
         <v/>
       </c>
       <c r="H43" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I43" s="14" t="str">
@@ -6609,7 +6887,7 @@
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G44" s="14" t="str">
@@ -6617,7 +6895,7 @@
         <v/>
       </c>
       <c r="H44" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I44" s="14" t="str">
@@ -6634,7 +6912,7 @@
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G45" s="14" t="str">
@@ -6642,7 +6920,7 @@
         <v/>
       </c>
       <c r="H45" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I45" s="14" t="str">
@@ -6659,7 +6937,7 @@
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
       <c r="F46" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G46" s="14" t="str">
@@ -6667,7 +6945,7 @@
         <v/>
       </c>
       <c r="H46" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I46" s="14" t="str">
@@ -6684,7 +6962,7 @@
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G47" s="14" t="str">
@@ -6692,7 +6970,7 @@
         <v/>
       </c>
       <c r="H47" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I47" s="14" t="str">
@@ -6709,7 +6987,7 @@
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
       <c r="F48" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G48" s="14" t="str">
@@ -6717,7 +6995,7 @@
         <v/>
       </c>
       <c r="H48" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I48" s="14" t="str">
@@ -6734,7 +7012,7 @@
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G49" s="14" t="str">
@@ -6742,7 +7020,7 @@
         <v/>
       </c>
       <c r="H49" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I49" s="14" t="str">
@@ -6759,7 +7037,7 @@
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G50" s="14" t="str">
@@ -6767,7 +7045,7 @@
         <v/>
       </c>
       <c r="H50" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I50" s="14" t="str">
@@ -6784,7 +7062,7 @@
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G51" s="14" t="str">
@@ -6792,7 +7070,7 @@
         <v/>
       </c>
       <c r="H51" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I51" s="14" t="str">
@@ -6809,7 +7087,7 @@
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G52" s="14" t="str">
@@ -6817,7 +7095,7 @@
         <v/>
       </c>
       <c r="H52" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I52" s="14" t="str">
@@ -6834,7 +7112,7 @@
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G53" s="14" t="str">
@@ -6842,7 +7120,7 @@
         <v/>
       </c>
       <c r="H53" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I53" s="14" t="str">
@@ -6859,7 +7137,7 @@
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
       <c r="F54" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G54" s="14" t="str">
@@ -6867,7 +7145,7 @@
         <v/>
       </c>
       <c r="H54" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I54" s="14" t="str">
@@ -6884,7 +7162,7 @@
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
       <c r="F55" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G55" s="14" t="str">
@@ -6892,7 +7170,7 @@
         <v/>
       </c>
       <c r="H55" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I55" s="14" t="str">
@@ -6909,7 +7187,7 @@
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
       <c r="F56" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G56" s="14" t="str">
@@ -6917,7 +7195,7 @@
         <v/>
       </c>
       <c r="H56" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I56" s="14" t="str">
@@ -6934,7 +7212,7 @@
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G57" s="14" t="str">
@@ -6942,7 +7220,7 @@
         <v/>
       </c>
       <c r="H57" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I57" s="14" t="str">
@@ -6959,7 +7237,7 @@
       <c r="D58" s="14"/>
       <c r="E58" s="14"/>
       <c r="F58" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G58" s="14" t="str">
@@ -6967,7 +7245,7 @@
         <v/>
       </c>
       <c r="H58" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I58" s="14" t="str">
@@ -6984,7 +7262,7 @@
       <c r="D59" s="14"/>
       <c r="E59" s="14"/>
       <c r="F59" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G59" s="14" t="str">
@@ -6992,7 +7270,7 @@
         <v/>
       </c>
       <c r="H59" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I59" s="14" t="str">
@@ -7009,7 +7287,7 @@
       <c r="D60" s="14"/>
       <c r="E60" s="14"/>
       <c r="F60" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G60" s="14" t="str">
@@ -7017,7 +7295,7 @@
         <v/>
       </c>
       <c r="H60" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I60" s="14" t="str">
@@ -7034,7 +7312,7 @@
       <c r="D61" s="14"/>
       <c r="E61" s="14"/>
       <c r="F61" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G61" s="14" t="str">
@@ -7042,7 +7320,7 @@
         <v/>
       </c>
       <c r="H61" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I61" s="14" t="str">
@@ -7059,7 +7337,7 @@
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G62" s="14" t="str">
@@ -7067,7 +7345,7 @@
         <v/>
       </c>
       <c r="H62" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I62" s="14" t="str">
@@ -7084,7 +7362,7 @@
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G63" s="14" t="str">
@@ -7092,7 +7370,7 @@
         <v/>
       </c>
       <c r="H63" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I63" s="14" t="str">
@@ -7109,7 +7387,7 @@
       <c r="D64" s="14"/>
       <c r="E64" s="14"/>
       <c r="F64" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G64" s="14" t="str">
@@ -7117,7 +7395,7 @@
         <v/>
       </c>
       <c r="H64" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I64" s="14" t="str">
@@ -7134,7 +7412,7 @@
       <c r="D65" s="14"/>
       <c r="E65" s="14"/>
       <c r="F65" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G65" s="14" t="str">
@@ -7142,7 +7420,7 @@
         <v/>
       </c>
       <c r="H65" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I65" s="14" t="str">
@@ -7159,7 +7437,7 @@
       <c r="D66" s="14"/>
       <c r="E66" s="14"/>
       <c r="F66" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G66" s="14" t="str">
@@ -7167,7 +7445,7 @@
         <v/>
       </c>
       <c r="H66" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I66" s="14" t="str">
@@ -7184,7 +7462,7 @@
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G67" s="14" t="str">
@@ -7192,7 +7470,7 @@
         <v/>
       </c>
       <c r="H67" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I67" s="14" t="str">
@@ -7209,7 +7487,7 @@
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
       <c r="F68" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G68" s="14" t="str">
@@ -7217,7 +7495,7 @@
         <v/>
       </c>
       <c r="H68" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I68" s="14" t="str">
@@ -7234,7 +7512,7 @@
       <c r="D69" s="14"/>
       <c r="E69" s="14"/>
       <c r="F69" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G69" s="14" t="str">
@@ -7242,7 +7520,7 @@
         <v/>
       </c>
       <c r="H69" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I69" s="14" t="str">
@@ -7259,7 +7537,7 @@
       <c r="D70" s="14"/>
       <c r="E70" s="14"/>
       <c r="F70" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G70" s="14" t="str">
@@ -7267,7 +7545,7 @@
         <v/>
       </c>
       <c r="H70" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I70" s="14" t="str">
@@ -7284,7 +7562,7 @@
       <c r="D71" s="14"/>
       <c r="E71" s="14"/>
       <c r="F71" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G71" s="14" t="str">
@@ -7292,7 +7570,7 @@
         <v/>
       </c>
       <c r="H71" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I71" s="14" t="str">
@@ -7309,7 +7587,7 @@
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G72" s="14" t="str">
@@ -7317,7 +7595,7 @@
         <v/>
       </c>
       <c r="H72" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I72" s="14" t="str">
@@ -7334,7 +7612,7 @@
       <c r="D73" s="14"/>
       <c r="E73" s="14"/>
       <c r="F73" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G73" s="14" t="str">
@@ -7342,7 +7620,7 @@
         <v/>
       </c>
       <c r="H73" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I73" s="14" t="str">
@@ -7359,7 +7637,7 @@
       <c r="D74" s="14"/>
       <c r="E74" s="14"/>
       <c r="F74" s="14" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G74" s="14" t="str">
@@ -7367,7 +7645,7 @@
         <v/>
       </c>
       <c r="H74" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I74" s="14" t="str">
@@ -7384,7 +7662,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="6">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -7392,7 +7670,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="7">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H75:H108" si="6">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -7409,7 +7687,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -7417,7 +7695,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -7434,7 +7712,7 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -7442,7 +7720,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -7459,7 +7737,7 @@
       <c r="D78" s="14"/>
       <c r="E78" s="14"/>
       <c r="F78" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G78" s="14" t="str">
@@ -7467,7 +7745,7 @@
         <v/>
       </c>
       <c r="H78" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I78" s="14" t="str">
@@ -7484,7 +7762,7 @@
       <c r="D79" s="14"/>
       <c r="E79" s="14"/>
       <c r="F79" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G79" s="14" t="str">
@@ -7492,7 +7770,7 @@
         <v/>
       </c>
       <c r="H79" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I79" s="14" t="str">
@@ -7509,7 +7787,7 @@
       <c r="D80" s="14"/>
       <c r="E80" s="14"/>
       <c r="F80" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G80" s="14" t="str">
@@ -7517,7 +7795,7 @@
         <v/>
       </c>
       <c r="H80" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I80" s="14" t="str">
@@ -7534,7 +7812,7 @@
       <c r="D81" s="14"/>
       <c r="E81" s="14"/>
       <c r="F81" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G81" s="14" t="str">
@@ -7542,7 +7820,7 @@
         <v/>
       </c>
       <c r="H81" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I81" s="14" t="str">
@@ -7559,7 +7837,7 @@
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G82" s="14" t="str">
@@ -7567,7 +7845,7 @@
         <v/>
       </c>
       <c r="H82" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I82" s="14" t="str">
@@ -7584,7 +7862,7 @@
       <c r="D83" s="14"/>
       <c r="E83" s="14"/>
       <c r="F83" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G83" s="14" t="str">
@@ -7592,7 +7870,7 @@
         <v/>
       </c>
       <c r="H83" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I83" s="14" t="str">
@@ -7609,7 +7887,7 @@
       <c r="D84" s="14"/>
       <c r="E84" s="14"/>
       <c r="F84" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G84" s="14" t="str">
@@ -7617,7 +7895,7 @@
         <v/>
       </c>
       <c r="H84" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I84" s="14" t="str">
@@ -7634,7 +7912,7 @@
       <c r="D85" s="14"/>
       <c r="E85" s="14"/>
       <c r="F85" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G85" s="14" t="str">
@@ -7642,7 +7920,7 @@
         <v/>
       </c>
       <c r="H85" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I85" s="14" t="str">
@@ -7659,7 +7937,7 @@
       <c r="D86" s="14"/>
       <c r="E86" s="14"/>
       <c r="F86" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G86" s="14" t="str">
@@ -7667,7 +7945,7 @@
         <v/>
       </c>
       <c r="H86" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I86" s="14" t="str">
@@ -7684,7 +7962,7 @@
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G87" s="14" t="str">
@@ -7692,7 +7970,7 @@
         <v/>
       </c>
       <c r="H87" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I87" s="14" t="str">
@@ -7709,7 +7987,7 @@
       <c r="D88" s="14"/>
       <c r="E88" s="14"/>
       <c r="F88" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G88" s="14" t="str">
@@ -7717,7 +7995,7 @@
         <v/>
       </c>
       <c r="H88" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I88" s="14" t="str">
@@ -7734,7 +8012,7 @@
       <c r="D89" s="14"/>
       <c r="E89" s="14"/>
       <c r="F89" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G89" s="14" t="str">
@@ -7742,7 +8020,7 @@
         <v/>
       </c>
       <c r="H89" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I89" s="14" t="str">
@@ -7759,7 +8037,7 @@
       <c r="D90" s="14"/>
       <c r="E90" s="14"/>
       <c r="F90" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G90" s="14" t="str">
@@ -7767,7 +8045,7 @@
         <v/>
       </c>
       <c r="H90" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I90" s="14" t="str">
@@ -7784,7 +8062,7 @@
       <c r="D91" s="14"/>
       <c r="E91" s="14"/>
       <c r="F91" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G91" s="14" t="str">
@@ -7792,7 +8070,7 @@
         <v/>
       </c>
       <c r="H91" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I91" s="14" t="str">
@@ -7809,7 +8087,7 @@
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G92" s="14" t="str">
@@ -7817,7 +8095,7 @@
         <v/>
       </c>
       <c r="H92" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I92" s="14" t="str">
@@ -7834,7 +8112,7 @@
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G93" s="14" t="str">
@@ -7842,7 +8120,7 @@
         <v/>
       </c>
       <c r="H93" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I93" s="14" t="str">
@@ -7859,7 +8137,7 @@
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
       <c r="F94" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G94" s="14" t="str">
@@ -7867,7 +8145,7 @@
         <v/>
       </c>
       <c r="H94" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I94" s="14" t="str">
@@ -7884,7 +8162,7 @@
       <c r="D95" s="14"/>
       <c r="E95" s="14"/>
       <c r="F95" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G95" s="14" t="str">
@@ -7892,7 +8170,7 @@
         <v/>
       </c>
       <c r="H95" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I95" s="14" t="str">
@@ -7909,7 +8187,7 @@
       <c r="D96" s="14"/>
       <c r="E96" s="14"/>
       <c r="F96" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G96" s="14" t="str">
@@ -7917,7 +8195,7 @@
         <v/>
       </c>
       <c r="H96" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I96" s="14" t="str">
@@ -7934,7 +8212,7 @@
       <c r="D97" s="14"/>
       <c r="E97" s="14"/>
       <c r="F97" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G97" s="14" t="str">
@@ -7942,7 +8220,7 @@
         <v/>
       </c>
       <c r="H97" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I97" s="14" t="str">
@@ -7959,7 +8237,7 @@
       <c r="D98" s="14"/>
       <c r="E98" s="14"/>
       <c r="F98" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G98" s="14" t="str">
@@ -7967,7 +8245,7 @@
         <v/>
       </c>
       <c r="H98" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I98" s="14" t="str">
@@ -7984,7 +8262,7 @@
       <c r="D99" s="14"/>
       <c r="E99" s="14"/>
       <c r="F99" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G99" s="14" t="str">
@@ -7992,7 +8270,7 @@
         <v/>
       </c>
       <c r="H99" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I99" s="14" t="str">
@@ -8009,7 +8287,7 @@
       <c r="D100" s="14"/>
       <c r="E100" s="14"/>
       <c r="F100" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G100" s="14" t="str">
@@ -8017,7 +8295,7 @@
         <v/>
       </c>
       <c r="H100" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I100" s="14" t="str">
@@ -8034,7 +8312,7 @@
       <c r="D101" s="14"/>
       <c r="E101" s="14"/>
       <c r="F101" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G101" s="14" t="str">
@@ -8042,7 +8320,7 @@
         <v/>
       </c>
       <c r="H101" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I101" s="14" t="str">
@@ -8059,7 +8337,7 @@
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G102" s="14" t="str">
@@ -8067,7 +8345,7 @@
         <v/>
       </c>
       <c r="H102" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I102" s="14" t="str">
@@ -8084,7 +8362,7 @@
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
       <c r="F103" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G103" s="14" t="str">
@@ -8092,7 +8370,7 @@
         <v/>
       </c>
       <c r="H103" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I103" s="14" t="str">
@@ -8109,7 +8387,7 @@
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G104" s="14" t="str">
@@ -8117,7 +8395,7 @@
         <v/>
       </c>
       <c r="H104" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I104" s="14" t="str">
@@ -8134,7 +8412,7 @@
       <c r="D105" s="14"/>
       <c r="E105" s="14"/>
       <c r="F105" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G105" s="14" t="str">
@@ -8142,7 +8420,7 @@
         <v/>
       </c>
       <c r="H105" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I105" s="14" t="str">
@@ -8159,7 +8437,7 @@
       <c r="D106" s="14"/>
       <c r="E106" s="14"/>
       <c r="F106" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G106" s="14" t="str">
@@ -8167,7 +8445,7 @@
         <v/>
       </c>
       <c r="H106" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I106" s="14" t="str">
@@ -8184,7 +8462,7 @@
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G107" s="14" t="str">
@@ -8192,7 +8470,7 @@
         <v/>
       </c>
       <c r="H107" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I107" s="14" t="str">
@@ -8209,7 +8487,7 @@
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="G108" s="14" t="str">
@@ -8217,7 +8495,7 @@
         <v/>
       </c>
       <c r="H108" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I108" s="14" t="str">
@@ -8275,20 +8553,26 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" location="filelinks"/>
-    <hyperlink ref="B11" r:id="rId2"/>
-    <hyperlink ref="B12" r:id="rId3" display="http://commons.wikimedia.org/wiki/File:Rigaud_Hyacinthe_-_Louis_XIV,_roi_de_France.jpg?uselang=es"/>
-    <hyperlink ref="B13" r:id="rId4"/>
-    <hyperlink ref="B14" r:id="rId5"/>
-    <hyperlink ref="B15" r:id="rId6" location="mediaviewer/File:Triangle_trade2.png_x000a_4 Eso Ciencias Sociales, geografía e historia/Fin del Antiguo Régimen/El pensamiento liberal._x000a_"/>
-    <hyperlink ref="B16" r:id="rId7" location="mediaviewer/File:Triangle_trade2.png" display="http://pt.wikipedia.org/wiki/Com%C3%A9rcio_Triangular#mediaviewer/File:Triangle_trade2.png"/>
-    <hyperlink ref="B17" r:id="rId8" location="mediaviewer/File:Triangle_trade2.png" display="http://pt.wikipedia.org/wiki/Com%C3%A9rcio_Triangular#mediaviewer/File:Triangle_trade2.png"/>
-    <hyperlink ref="B18" r:id="rId9"/>
-    <hyperlink ref="B19" r:id="rId10" display="http://commons.wikimedia.org/wiki/File:Troisordres.jpg?uselang=es"/>
-    <hyperlink ref="B20" r:id="rId11" display="http://commons.wikimedia.org/wiki/File:Troisordres.jpg?uselang=es"/>
+    <hyperlink ref="B10" r:id="rId1"/>
+    <hyperlink ref="B13" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+    <hyperlink ref="B17" r:id="rId5" location="/media/File:Francisco_miranda_in_cadiz.jpg"/>
+    <hyperlink ref="B18" r:id="rId6"/>
+    <hyperlink ref="B19" r:id="rId7"/>
+    <hyperlink ref="B20" r:id="rId8"/>
+    <hyperlink ref="B21" r:id="rId9"/>
+    <hyperlink ref="B22" r:id="rId10"/>
+    <hyperlink ref="B23" r:id="rId11"/>
+    <hyperlink ref="B24" r:id="rId12"/>
+    <hyperlink ref="B25" r:id="rId13"/>
+    <hyperlink ref="B26" r:id="rId14"/>
+    <hyperlink ref="B27" r:id="rId15"/>
+    <hyperlink ref="B28" r:id="rId16"/>
+    <hyperlink ref="B29" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId12"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId18"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8308,539 +8592,539 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.25" style="34" customWidth="1"/>
-    <col min="2" max="2" width="11" style="34"/>
-    <col min="3" max="3" width="13.875" style="34" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="34" customWidth="1"/>
-    <col min="5" max="7" width="11" style="34"/>
-    <col min="8" max="11" width="11" style="34" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="11" style="34"/>
+    <col min="1" max="1" width="72.25" style="32" customWidth="1"/>
+    <col min="2" max="2" width="11" style="32"/>
+    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="32" customWidth="1"/>
+    <col min="5" max="7" width="11" style="32"/>
+    <col min="8" max="11" width="11" style="32" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="93"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="94" t="s">
+      <c r="B2" s="41"/>
+      <c r="C2" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="44"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="100" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="44"/>
-      <c r="H3" s="34" t="s">
+      <c r="D3" s="99"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="42"/>
+      <c r="H3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="34" t="s">
+      <c r="K3" s="32" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="H4" s="34" t="s">
+      <c r="F4" s="42"/>
+      <c r="H4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="34">
+      <c r="J4" s="32">
         <v>1</v>
       </c>
-      <c r="K4" s="34">
+      <c r="K4" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="40" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="103" t="str">
+      <c r="D5" s="101" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="44"/>
-      <c r="H5" s="34" t="s">
+      <c r="E5" s="102"/>
+      <c r="F5" s="42"/>
+      <c r="H5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="34">
+      <c r="J5" s="32">
         <v>2</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="32">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44"/>
-      <c r="H6" s="34" t="s">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="H6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="34" t="s">
+      <c r="I6" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="34">
+      <c r="J6" s="32">
         <v>3</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="48" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="74" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="89" t="str">
+      <c r="D7" s="87" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
-      <c r="H7" s="34" t="s">
+      <c r="E7" s="87"/>
+      <c r="F7" s="88"/>
+      <c r="H7" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="34" t="s">
+      <c r="I7" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="32">
         <v>4</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
-      <c r="I8" s="34" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="I8" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="32">
         <v>5</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="32">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="44"/>
-      <c r="I9" s="34" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="42"/>
+      <c r="I9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="34">
+      <c r="J9" s="32">
         <v>6</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="32">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="I10" s="34" t="s">
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="46"/>
+      <c r="I10" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="32">
         <v>7</v>
       </c>
-      <c r="K10" s="34">
+      <c r="K10" s="32">
         <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="34" t="s">
+      <c r="I11" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="34">
+      <c r="J11" s="32">
         <v>8</v>
       </c>
-      <c r="K11" s="34">
+      <c r="K11" s="32">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I12" s="34" t="s">
+      <c r="I12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="34">
+      <c r="J12" s="32">
         <v>9</v>
       </c>
-      <c r="K12" s="34">
+      <c r="K12" s="32">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="91" t="s">
+      <c r="A13" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="93"/>
-      <c r="I13" s="34" t="s">
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="91"/>
+      <c r="I13" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J13" s="34">
+      <c r="J13" s="32">
         <v>10</v>
       </c>
-      <c r="K13" s="34">
+      <c r="K13" s="32">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
-      <c r="I14" s="34" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="I14" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="34">
+      <c r="J14" s="32">
         <v>11</v>
       </c>
-      <c r="K14" s="34">
+      <c r="K14" s="32">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="94" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="92" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
-      <c r="J15" s="34">
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="J15" s="32">
         <v>12</v>
       </c>
-      <c r="K15" s="34">
+      <c r="K15" s="32">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="38" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="34">
+      <c r="J16" s="32">
         <v>13</v>
       </c>
-      <c r="K16" s="34">
+      <c r="K16" s="32">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="40" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="97" t="str">
+      <c r="D17" s="95" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="99"/>
-      <c r="J17" s="34">
+      <c r="E17" s="96"/>
+      <c r="F17" s="97"/>
+      <c r="J17" s="32">
         <v>14</v>
       </c>
-      <c r="K17" s="34">
+      <c r="K17" s="32">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="74" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="89" t="str">
+      <c r="D18" s="87" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="J18" s="34">
+      <c r="E18" s="87"/>
+      <c r="F18" s="88"/>
+      <c r="J18" s="32">
         <v>15</v>
       </c>
-      <c r="K18" s="34">
+      <c r="K18" s="32">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44"/>
-      <c r="H19" s="34">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="H19" s="32">
         <v>3</v>
       </c>
-      <c r="J19" s="34">
+      <c r="J19" s="32">
         <v>16</v>
       </c>
-      <c r="K19" s="34">
+      <c r="K19" s="32">
         <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="H20" s="34">
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="46"/>
+      <c r="H20" s="32">
         <v>4</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="32">
         <v>5</v>
       </c>
-      <c r="J20" s="34">
+      <c r="J20" s="32">
         <v>4</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="32">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H21" s="34" t="str">
+      <c r="H21" s="32" t="str">
         <f>IF(INDEX(H4:H7,H20)=H4,"MA",IF(INDEX(H4:H7,H20)=H5,"CN",IF(INDEX(H4:H7,H20)=H6,"CS",IF(INDEX(H4:H7,H20)=H7,"LE"))))</f>
         <v>LE</v>
       </c>
-      <c r="I21" s="34" t="str">
+      <c r="I21" s="32" t="str">
         <f>CONCATENATE(IF((I20+2)&lt;10,"0",""),I20+2)</f>
         <v>07</v>
       </c>
-      <c r="J21" s="34" t="str">
+      <c r="J21" s="32" t="str">
         <f>CONCATENATE(IF(J20&lt;10,"0",""),J20)</f>
         <v>04</v>
       </c>
-      <c r="K21" s="34">
+      <c r="K21" s="32">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K22" s="34">
+      <c r="K22" s="32">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="34">
+      <c r="K23" s="32">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K24" s="34">
+      <c r="K24" s="32">
         <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K25" s="34">
+      <c r="K25" s="32">
         <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K26" s="34">
+      <c r="K26" s="32">
         <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K27" s="34">
+      <c r="K27" s="32">
         <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K28" s="34">
+      <c r="K28" s="32">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="34">
+      <c r="K29" s="32">
         <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K30" s="34">
+      <c r="K30" s="32">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="34">
+      <c r="K31" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K32" s="34">
+      <c r="K32" s="32">
         <v>29</v>
       </c>
     </row>
     <row r="33" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K33" s="34">
+      <c r="K33" s="32">
         <v>30</v>
       </c>
     </row>
     <row r="34" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K34" s="34">
+      <c r="K34" s="32">
         <v>31</v>
       </c>
     </row>
     <row r="35" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K35" s="34">
+      <c r="K35" s="32">
         <v>32</v>
       </c>
     </row>
     <row r="36" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K36" s="34">
+      <c r="K36" s="32">
         <v>33</v>
       </c>
     </row>
     <row r="37" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K37" s="34">
+      <c r="K37" s="32">
         <v>34</v>
       </c>
     </row>
     <row r="38" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K38" s="34">
+      <c r="K38" s="32">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K39" s="34">
+      <c r="K39" s="32">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K40" s="34">
+      <c r="K40" s="32">
         <v>37</v>
       </c>
     </row>
     <row r="41" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K41" s="34">
+      <c r="K41" s="32">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K42" s="34">
+      <c r="K42" s="32">
         <v>39</v>
       </c>
     </row>
     <row r="43" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K43" s="34">
+      <c r="K43" s="32">
         <v>40</v>
       </c>
     </row>
     <row r="44" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K44" s="34">
+      <c r="K44" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K45" s="34" t="str">
+      <c r="K45" s="32" t="str">
         <f>CONCATENATE("REC",K44,0)</f>
         <v>REC10</v>
       </c>
@@ -9035,559 +9319,559 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" style="34" customWidth="1"/>
-    <col min="2" max="2" width="22.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="17.375" style="34" customWidth="1"/>
-    <col min="4" max="4" width="10.875" style="34"/>
-    <col min="5" max="5" width="11.75" style="34" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="34" customWidth="1"/>
-    <col min="7" max="7" width="11" style="34" customWidth="1"/>
-    <col min="8" max="9" width="22.25" style="34" customWidth="1"/>
-    <col min="10" max="10" width="20.75" style="34" customWidth="1"/>
-    <col min="11" max="11" width="44.5" style="34" customWidth="1"/>
-    <col min="12" max="16384" width="10.875" style="34"/>
+    <col min="1" max="1" width="21" style="32" customWidth="1"/>
+    <col min="2" max="2" width="22.25" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="32" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="32"/>
+    <col min="5" max="5" width="11.75" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="32" customWidth="1"/>
+    <col min="7" max="7" width="11" style="32" customWidth="1"/>
+    <col min="8" max="9" width="22.25" style="32" customWidth="1"/>
+    <col min="10" max="10" width="20.75" style="32" customWidth="1"/>
+    <col min="11" max="11" width="44.5" style="32" customWidth="1"/>
+    <col min="12" max="16384" width="10.875" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="105" t="s">
+      <c r="B1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="105" t="s">
+      <c r="C1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="105" t="s">
+      <c r="D1" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="105" t="s">
+      <c r="E1" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="105" t="s">
+      <c r="F1" s="103" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="105" t="s">
+      <c r="G1" s="103" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="106" t="s">
+      <c r="H1" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="53" t="s">
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="51" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+    <row r="3" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="54" t="s">
+      <c r="E3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="56" t="s">
+      <c r="I4" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="56"/>
-    </row>
-    <row r="5" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="J4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="56" t="s">
+      <c r="E5" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="56" t="s">
+      <c r="G5" s="56"/>
+      <c r="H5" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I5" s="56" t="s">
+      <c r="I5" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J5" s="58"/>
-    </row>
-    <row r="6" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="J5" s="56"/>
+    </row>
+    <row r="6" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="56" t="s">
+      <c r="E6" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="56" t="s">
+      <c r="G6" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="56" t="s">
+      <c r="H6" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J6" s="56" t="s">
+      <c r="J6" s="54" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+    <row r="7" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="56" t="s">
+      <c r="E7" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56" t="s">
+      <c r="G7" s="54"/>
+      <c r="H7" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I7" s="56" t="s">
+      <c r="I7" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J7" s="56"/>
-    </row>
-    <row r="8" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="J7" s="54"/>
+    </row>
+    <row r="8" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56" t="s">
+      <c r="G8" s="54"/>
+      <c r="H8" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I8" s="56" t="s">
+      <c r="I8" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="56"/>
-    </row>
-    <row r="9" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="56" t="s">
+      <c r="F9" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="54"/>
+      <c r="H9" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="56" t="s">
+      <c r="I9" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J9" s="56"/>
-    </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56" t="s">
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-    </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" s="53" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="56" t="s">
+      <c r="C11" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="56" t="s">
+      <c r="E11" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56" t="s">
+      <c r="G11" s="54"/>
+      <c r="H11" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I11" s="56" t="s">
+      <c r="I11" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J11" s="56"/>
-    </row>
-    <row r="12" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="J11" s="54"/>
+    </row>
+    <row r="12" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56" t="s">
+      <c r="G12" s="54"/>
+      <c r="H12" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I12" s="56" t="s">
+      <c r="I12" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="J12" s="56"/>
+      <c r="J12" s="54"/>
     </row>
     <row r="13" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="61" t="s">
+      <c r="E13" s="58"/>
+      <c r="F13" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="56" t="s">
+      <c r="G13" s="57"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J13" s="59"/>
-      <c r="K13" s="34" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="61" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="59"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56" t="s">
+      <c r="G14" s="57"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="J14" s="59"/>
+      <c r="J14" s="57"/>
     </row>
     <row r="15" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="56" t="s">
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
-      <c r="K15" s="34" t="s">
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="57" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D16" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="F16" s="60" t="s">
+      <c r="F16" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="G16" s="60"/>
-      <c r="H16" s="61" t="s">
+      <c r="G16" s="58"/>
+      <c r="H16" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="J16" s="60"/>
-      <c r="K16" s="62" t="s">
+      <c r="J16" s="58"/>
+      <c r="K16" s="60" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56" t="s">
+      <c r="B17" s="54"/>
+      <c r="C17" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="56" t="s">
+      <c r="E17" s="54" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="56" t="s">
+      <c r="F17" s="54" t="s">
         <v>115</v>
       </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="63" t="s">
+      <c r="G17" s="54"/>
+      <c r="H17" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="J17" s="56"/>
-      <c r="K17" s="64" t="s">
+      <c r="J17" s="54"/>
+      <c r="K17" s="62" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="65" t="s">
         <v>121</v>
       </c>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="66" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="B22" s="70" t="s">
+      <c r="B22" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="67" t="s">
         <v>126</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="68" t="s">
         <v>127</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
     </row>
     <row r="24" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
     </row>
     <row r="26" spans="1:11" ht="63" x14ac:dyDescent="0.25">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/fuentes/contenidos/grado08/guion02/SolicitudGrafica_CS_08_02_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion02/SolicitudGrafica_CS_08_02_CO.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="196">
   <si>
     <t>Asignatura:</t>
   </si>
@@ -659,6 +659,15 @@
   </si>
   <si>
     <t>Independencia y nuevos Estados en América</t>
+  </si>
+  <si>
+    <t>Mapa del reino de Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragmentación de Centroamerica </t>
+  </si>
+  <si>
+    <t>http://reflexionessv.com/datos-interesantes-de-la-independencia-de-centroamerica/</t>
   </si>
 </sst>
 </file>
@@ -1555,6 +1564,27 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1586,6 +1616,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1650,30 +1683,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="51" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="5" xfId="51" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="51" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -2133,8 +2142,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2155,7 +2168,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2176,7 +2191,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2220,7 +2237,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2241,7 +2260,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2262,7 +2283,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2280,8 +2303,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2302,7 +2329,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2323,7 +2352,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2338,11 +2369,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2357,11 +2392,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2379,14 +2418,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2399,13 +2444,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2420,7 +2469,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -2462,8 +2513,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -2484,7 +2539,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -2505,7 +2562,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -2549,7 +2608,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -2570,7 +2631,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -2591,7 +2654,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -2609,8 +2674,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -2631,7 +2700,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -2652,7 +2723,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -2667,11 +2740,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -2686,11 +2763,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -2708,14 +2789,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -2728,13 +2815,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -2749,7 +2840,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -3099,8 +3192,12 @@
           <cell r="E3" t="str">
             <v>110 x 110 px</v>
           </cell>
-          <cell r="F3"/>
-          <cell r="G3"/>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
           <cell r="A4" t="str">
@@ -3121,7 +3218,9 @@
           <cell r="F4" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G4"/>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
@@ -3142,7 +3241,9 @@
           <cell r="F5" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G5"/>
+          <cell r="G5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
           <cell r="A6" t="str">
@@ -3186,7 +3287,9 @@
           <cell r="F7" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G7"/>
+          <cell r="G7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
           <cell r="A8" t="str">
@@ -3207,7 +3310,9 @@
           <cell r="F8" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G8"/>
+          <cell r="G8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
@@ -3228,7 +3333,9 @@
           <cell r="F9" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G9"/>
+          <cell r="G9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
@@ -3246,8 +3353,12 @@
           <cell r="E10" t="str">
             <v>273 x 51 px</v>
           </cell>
-          <cell r="F10"/>
-          <cell r="G10"/>
+          <cell r="F10">
+            <v>0</v>
+          </cell>
+          <cell r="G10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
@@ -3268,7 +3379,9 @@
           <cell r="F11" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G11"/>
+          <cell r="G11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
           <cell r="A12" t="str">
@@ -3289,7 +3402,9 @@
           <cell r="F12" t="str">
             <v>500 x 500 px</v>
           </cell>
-          <cell r="G12"/>
+          <cell r="G12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
@@ -3304,11 +3419,15 @@
           <cell r="D13" t="str">
             <v>JPG</v>
           </cell>
-          <cell r="E13"/>
+          <cell r="E13">
+            <v>0</v>
+          </cell>
           <cell r="F13" t="str">
             <v>800 x 460 px</v>
           </cell>
-          <cell r="G13"/>
+          <cell r="G13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
@@ -3323,11 +3442,15 @@
           <cell r="D14" t="str">
             <v>PNG</v>
           </cell>
-          <cell r="E14"/>
+          <cell r="E14">
+            <v>0</v>
+          </cell>
           <cell r="F14" t="str">
             <v>613 × 180 px</v>
           </cell>
-          <cell r="G14"/>
+          <cell r="G14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
@@ -3345,14 +3468,20 @@
           <cell r="E15" t="str">
             <v>950 x 608 px</v>
           </cell>
-          <cell r="F15"/>
-          <cell r="G15"/>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="G15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
             <v>Cuaderno de estudio</v>
           </cell>
-          <cell r="B16"/>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
           <cell r="C16" t="str">
             <v>WEB, no rebasar los 100K</v>
           </cell>
@@ -3365,13 +3494,17 @@
           <cell r="F16" t="str">
             <v>800 x 600 px</v>
           </cell>
-          <cell r="G16"/>
+          <cell r="G16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
             <v>Iconos del guión</v>
           </cell>
-          <cell r="B17"/>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
           <cell r="C17" t="str">
             <v>WEB</v>
           </cell>
@@ -3386,7 +3519,9 @@
             <v>med =
 378 x 268 px</v>
           </cell>
-          <cell r="G17"/>
+          <cell r="G17">
+            <v>0</v>
+          </cell>
         </row>
       </sheetData>
     </sheetDataSet>
@@ -5547,11 +5682,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P110"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane ySplit="9" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5589,14 +5724,14 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="88" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="F2" s="74" t="s">
+      <c r="D2" s="89"/>
+      <c r="F2" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="75"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="50"/>
       <c r="I2" s="50"/>
       <c r="J2" s="16"/>
@@ -5606,14 +5741,14 @@
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="83">
+      <c r="C3" s="90">
         <v>8</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="F3" s="76">
+      <c r="D3" s="91"/>
+      <c r="F3" s="83">
         <v>42067</v>
       </c>
-      <c r="G3" s="77"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="50"/>
       <c r="I3" s="50"/>
       <c r="J3" s="16"/>
@@ -5623,10 +5758,10 @@
       <c r="B4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="92" t="s">
         <v>192</v>
       </c>
-      <c r="D4" s="84"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="5"/>
       <c r="F4" s="49" t="s">
         <v>56</v>
@@ -5644,10 +5779,10 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="85" t="s">
+      <c r="C5" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="86"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="5"/>
       <c r="F5" s="47" t="str">
         <f>IF(G4="Recurso","Motor del recurso","")</f>
@@ -5698,12 +5833,12 @@
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="78" t="s">
+      <c r="F8" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="80"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="87"/>
       <c r="J8" s="18"/>
       <c r="K8" s="12"/>
       <c r="L8" s="2"/>
@@ -5820,7 +5955,7 @@
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[1]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[1]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J11" s="105" t="s">
+      <c r="J11" s="74" t="s">
         <v>157</v>
       </c>
       <c r="K11" s="19"/>
@@ -5865,7 +6000,7 @@
       <c r="K12" s="19"/>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="str">
+      <c r="A13" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG04","")</f>
         <v>IMG04</v>
       </c>
@@ -5898,7 +6033,7 @@
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[3]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[3]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J13" s="105" t="s">
+      <c r="J13" s="74" t="s">
         <v>159</v>
       </c>
       <c r="K13" s="19"/>
@@ -5937,13 +6072,13 @@
         <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[4]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[4]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J14" s="105" t="s">
+      <c r="J14" s="74" t="s">
         <v>161</v>
       </c>
       <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="106" t="str">
+      <c r="A15" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG06","")</f>
         <v>IMG06</v>
       </c>
@@ -5976,7 +6111,7 @@
         <f>IF(OR(B15&lt;&gt;"",J15&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[5]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[5]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J15" s="105" t="s">
+      <c r="J15" s="74" t="s">
         <v>164</v>
       </c>
       <c r="K15" s="19"/>
@@ -6015,7 +6150,7 @@
         <f>IF(OR(B16&lt;&gt;"",J16&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[6]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[6]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J16" s="105" t="s">
+      <c r="J16" s="74" t="s">
         <v>165</v>
       </c>
       <c r="K16" s="19"/>
@@ -6054,7 +6189,7 @@
         <f>IF(OR(B17&lt;&gt;"",J17&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[7]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[7]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J17" s="105" t="s">
+      <c r="J17" s="74" t="s">
         <v>167</v>
       </c>
       <c r="K17" s="19"/>
@@ -6093,7 +6228,7 @@
         <f>IF(OR(B18&lt;&gt;"",J18&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[8]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[8]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J18" s="105" t="s">
+      <c r="J18" s="74" t="s">
         <v>169</v>
       </c>
       <c r="K18" s="19"/>
@@ -6132,7 +6267,7 @@
         <f>IF(OR(B19&lt;&gt;"",J19&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[9]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[9]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J19" s="105" t="s">
+      <c r="J19" s="74" t="s">
         <v>171</v>
       </c>
       <c r="K19" s="19"/>
@@ -6171,31 +6306,31 @@
         <f>IF(OR(B20&lt;&gt;"",J20&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'[10]Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'[10]Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J20" s="105" t="s">
+      <c r="J20" s="74" t="s">
         <v>173</v>
       </c>
       <c r="K20" s="19"/>
     </row>
     <row r="21" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="106" t="str">
+      <c r="A21" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG12","")</f>
         <v>IMG12</v>
       </c>
-      <c r="B21" s="107" t="s">
+      <c r="B21" s="76" t="s">
         <v>174</v>
       </c>
       <c r="C21" s="27" t="str">
         <f>IF(OR(B21&lt;&gt;Ayuda!A16,J21&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D21" s="105" t="s">
+      <c r="D21" s="74" t="s">
         <v>150</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>149</v>
       </c>
       <c r="F21" s="14" t="str">
-        <f t="shared" ref="F21:F74" si="2">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" ref="F21:F76" si="2">IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I21="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_08_02_CO_IMG12_small</v>
       </c>
       <c r="G21" s="14" t="str">
@@ -6203,31 +6338,31 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H21" s="14" t="str">
-        <f t="shared" ref="H21:H74" si="3">IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" ref="H21:H76" si="3">IF(I21&lt;&gt;"",IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),CONCATENATE($C$7,"_",$A21,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_08_02_CO_IMG12_zoom</v>
       </c>
       <c r="I21" s="14" t="str">
         <f>IF(OR(B21&lt;&gt;"",J21&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J21" s="108" t="s">
+      <c r="J21" s="77" t="s">
         <v>175</v>
       </c>
       <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A22" s="106" t="str">
+      <c r="A22" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG13","")</f>
         <v>IMG13</v>
       </c>
-      <c r="B22" s="109" t="s">
+      <c r="B22" s="78" t="s">
         <v>176</v>
       </c>
       <c r="C22" s="27" t="str">
         <f>IF(OR(B22&lt;&gt;Ayuda!A17,J22&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="74" t="s">
         <v>150</v>
       </c>
       <c r="E22" s="14" t="s">
@@ -6249,24 +6384,24 @@
         <f>IF(OR(B22&lt;&gt;"",J22&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J22" s="105" t="s">
+      <c r="J22" s="74" t="s">
         <v>179</v>
       </c>
       <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="106" t="str">
+      <c r="A23" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG14","")</f>
         <v>IMG14</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="76" t="s">
         <v>177</v>
       </c>
       <c r="C23" s="27" t="str">
         <f>IF(OR(B23&lt;&gt;Ayuda!A18,J23&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D23" s="105" t="s">
+      <c r="D23" s="74" t="s">
         <v>150</v>
       </c>
       <c r="E23" s="14" t="s">
@@ -6288,13 +6423,13 @@
         <f>IF(OR(B23&lt;&gt;"",J23&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J23" s="110" t="s">
+      <c r="J23" s="79" t="s">
         <v>181</v>
       </c>
       <c r="K23" s="19"/>
     </row>
     <row r="24" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="str">
+      <c r="A24" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG15","")</f>
         <v>IMG15</v>
       </c>
@@ -6305,7 +6440,7 @@
         <f>IF(OR(B24&lt;&gt;Ayuda!A19,J24&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
-      <c r="D24" s="105" t="s">
+      <c r="D24" s="74" t="s">
         <v>150</v>
       </c>
       <c r="E24" s="14" t="s">
@@ -6327,17 +6462,17 @@
         <f>IF(OR(B24&lt;&gt;"",J24&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J24" s="105" t="s">
+      <c r="J24" s="74" t="s">
         <v>180</v>
       </c>
       <c r="K24" s="15"/>
     </row>
     <row r="25" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="str">
+      <c r="A25" s="75" t="str">
         <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG16","")</f>
         <v>IMG16</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="76" t="s">
         <v>182</v>
       </c>
       <c r="C25" s="27" t="str">
@@ -6366,17 +6501,17 @@
         <f>IF(OR(B25&lt;&gt;"",J25&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J25" s="105" t="s">
+      <c r="J25" s="74" t="s">
         <v>183</v>
       </c>
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="str">
-        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG18","")</f>
-        <v>IMG18</v>
-      </c>
-      <c r="B26" s="107" t="s">
+        <f>IF(OR(B11&lt;&gt;"",J11&lt;&gt;""),"IMG17","")</f>
+        <v>IMG17</v>
+      </c>
+      <c r="B26" s="76" t="s">
         <v>184</v>
       </c>
       <c r="C26" s="27" t="str">
@@ -6391,7 +6526,7 @@
       </c>
       <c r="F26" s="14" t="str">
         <f t="shared" si="2"/>
-        <v>CS_08_02_CO_IMG18_small</v>
+        <v>CS_08_02_CO_IMG17_small</v>
       </c>
       <c r="G26" s="14" t="str">
         <f>IF(F26&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
@@ -6399,23 +6534,23 @@
       </c>
       <c r="H26" s="14" t="str">
         <f t="shared" si="3"/>
-        <v>CS_08_02_CO_IMG18_zoom</v>
+        <v>CS_08_02_CO_IMG17_zoom</v>
       </c>
       <c r="I26" s="14" t="str">
         <f>IF(OR(B26&lt;&gt;"",J26&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J26" s="105" t="s">
+      <c r="J26" s="74" t="s">
         <v>186</v>
       </c>
       <c r="K26" s="19"/>
     </row>
     <row r="27" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="str">
-        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG20","")</f>
-        <v>IMG20</v>
-      </c>
-      <c r="B27" s="107" t="s">
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG18","")</f>
+        <v>IMG18</v>
+      </c>
+      <c r="B27" s="76" t="s">
         <v>185</v>
       </c>
       <c r="C27" s="27" t="str">
@@ -6429,33 +6564,33 @@
         <v>149</v>
       </c>
       <c r="F27" s="14" t="str">
-        <f t="shared" si="2"/>
-        <v>CS_08_02_CO_IMG20_small</v>
+        <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE($C$7,"_",$A27,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I27="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <v>CS_08_02_CO_IMG18_small</v>
       </c>
       <c r="G27" s="14" t="str">
         <f>IF(F27&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
         <v>526 x 370 px</v>
       </c>
       <c r="H27" s="14" t="str">
-        <f t="shared" si="3"/>
-        <v>CS_08_02_CO_IMG20_zoom</v>
+        <f>IF(I27&lt;&gt;"",IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),CONCATENATE($C$7,"_",$A27,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <v>CS_08_02_CO_IMG18_zoom</v>
       </c>
       <c r="I27" s="14" t="str">
         <f>IF(OR(B27&lt;&gt;"",J27&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J27" s="110" t="s">
-        <v>187</v>
+      <c r="J27" s="74" t="s">
+        <v>193</v>
       </c>
       <c r="K27" s="19"/>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="str">
         <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),"IMG19","")</f>
         <v>IMG19</v>
       </c>
-      <c r="B28" s="111" t="s">
-        <v>188</v>
+      <c r="B28" s="76" t="s">
+        <v>195</v>
       </c>
       <c r="C28" s="27" t="str">
         <f>IF(OR(B28&lt;&gt;Ayuda!A23,J28&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
@@ -6465,10 +6600,10 @@
         <v>150</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F28" s="14" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE($C$7,"_",$A28,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I28="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v>CS_08_02_CO_IMG19_small</v>
       </c>
       <c r="G28" s="14" t="str">
@@ -6476,34 +6611,34 @@
         <v>526 x 370 px</v>
       </c>
       <c r="H28" s="14" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(I28&lt;&gt;"",IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),CONCATENATE($C$7,"_",$A28,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v>CS_08_02_CO_IMG19_zoom</v>
       </c>
       <c r="I28" s="14" t="str">
         <f>IF(OR(B28&lt;&gt;"",J28&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J28" s="110" t="s">
-        <v>189</v>
+      <c r="J28" s="74" t="s">
+        <v>194</v>
       </c>
       <c r="K28" s="19"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="str">
-        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),"IMG20","")</f>
+        <f>IF(OR(B12&lt;&gt;"",J12&lt;&gt;""),"IMG20","")</f>
         <v>IMG20</v>
       </c>
-      <c r="B29" s="107" t="s">
-        <v>190</v>
+      <c r="B29" s="76" t="s">
+        <v>185</v>
       </c>
       <c r="C29" s="27" t="str">
-        <f>IF(OR(B29&lt;&gt;Ayuda!A24,J29&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <f>IF(OR(B29&lt;&gt;Ayuda!A22,J29&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
         <v>Cuaderno de Estudio</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="E29" s="105" t="s">
+      <c r="E29" s="14" t="s">
         <v>149</v>
       </c>
       <c r="F29" s="14" t="str">
@@ -6522,66 +6657,94 @@
         <f>IF(OR(B29&lt;&gt;"",J29&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v>800 x 600 px</v>
       </c>
-      <c r="J29" s="110" t="s">
-        <v>191</v>
+      <c r="J29" s="79" t="s">
+        <v>187</v>
       </c>
       <c r="K29" s="19"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="str">
-        <f t="shared" ref="A21:A30" si="4">IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),CONCATENATE(LEFT(A29,3),IF(MID(A29,4,2)+1&lt;10,CONCATENATE("0",MID(A29,4,2)+1))),"")</f>
-        <v/>
-      </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
+        <f>IF(OR(B13&lt;&gt;"",J13&lt;&gt;""),"IMG21","")</f>
+        <v>IMG21</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C30" s="27" t="str">
+        <f>IF(OR(B30&lt;&gt;Ayuda!A23,J30&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="F30" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_08_02_CO_IMG21_small</v>
       </c>
       <c r="G30" s="14" t="str">
         <f>IF(F30&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H30" s="14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CS_08_02_CO_IMG21_zoom</v>
       </c>
       <c r="I30" s="14" t="str">
         <f>IF(OR(B30&lt;&gt;"",J30&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J30" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J30" s="79" t="s">
+        <v>189</v>
+      </c>
       <c r="K30" s="19"/>
     </row>
-    <row r="31" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
+    <row r="31" spans="1:11" s="12" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="str">
+        <f>IF(OR(B14&lt;&gt;"",J14&lt;&gt;""),"IMG22","")</f>
+        <v>IMG22</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="C31" s="27" t="str">
+        <f>IF(OR(B31&lt;&gt;Ayuda!A24,J31&lt;&gt;""),IF($G$4="Recurso",CONCATENATE($G$4," ",$G$5),$G$4),"")</f>
+        <v>Cuaderno de Estudio</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="74" t="s">
+        <v>149</v>
+      </c>
       <c r="F31" s="14" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>CS_08_02_CO_IMG22_small</v>
       </c>
       <c r="G31" s="14" t="str">
         <f>IF(F31&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
-        <v/>
+        <v>526 x 370 px</v>
       </c>
       <c r="H31" s="14" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>CS_08_02_CO_IMG22_zoom</v>
       </c>
       <c r="I31" s="14" t="str">
         <f>IF(OR(B31&lt;&gt;"",J31&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
-        <v/>
-      </c>
-      <c r="J31" s="19"/>
+        <v>800 x 600 px</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>191</v>
+      </c>
       <c r="K31" s="19"/>
     </row>
     <row r="32" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="13" t="str">
+        <f t="shared" ref="A32" si="4">IF(OR(B32&lt;&gt;"",J32&lt;&gt;""),CONCATENATE(LEFT(A31,3),IF(MID(A31,4,2)+1&lt;10,CONCATENATE("0",MID(A31,4,2)+1))),"")</f>
+        <v/>
+      </c>
       <c r="B32" s="28"/>
       <c r="C32" s="28"/>
       <c r="D32" s="14"/>
@@ -6657,8 +6820,8 @@
     </row>
     <row r="35" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
       <c r="F35" s="14" t="str">
@@ -6677,13 +6840,13 @@
         <f>IF(OR(B35&lt;&gt;"",J35&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J35" s="14"/>
-      <c r="K35" s="15"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
     </row>
     <row r="36" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
       <c r="F36" s="14" t="str">
@@ -6702,8 +6865,8 @@
         <f>IF(OR(B36&lt;&gt;"",J36&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J36" s="14"/>
-      <c r="K36" s="15"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
@@ -6727,13 +6890,13 @@
         <f>IF(OR(B37&lt;&gt;"",J37&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J37" s="22"/>
+      <c r="J37" s="14"/>
       <c r="K37" s="15"/>
     </row>
     <row r="38" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
       <c r="F38" s="14" t="str">
@@ -6752,7 +6915,7 @@
         <f>IF(OR(B38&lt;&gt;"",J38&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J38" s="23"/>
+      <c r="J38" s="14"/>
       <c r="K38" s="15"/>
     </row>
     <row r="39" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6777,13 +6940,13 @@
         <f>IF(OR(B39&lt;&gt;"",J39&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J39" s="14"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="15"/>
     </row>
     <row r="40" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14" t="str">
@@ -6802,7 +6965,7 @@
         <f>IF(OR(B40&lt;&gt;"",J40&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
         <v/>
       </c>
-      <c r="J40" s="14"/>
+      <c r="J40" s="23"/>
       <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7332,8 +7495,8 @@
     </row>
     <row r="62" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14" t="str">
@@ -7357,8 +7520,8 @@
     </row>
     <row r="63" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="14"/>
       <c r="E63" s="14"/>
       <c r="F63" s="14" t="str">
@@ -7662,7 +7825,7 @@
       <c r="D75" s="14"/>
       <c r="E75" s="14"/>
       <c r="F75" s="14" t="str">
-        <f t="shared" ref="F75:F108" si="5">IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I75="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G75" s="14" t="str">
@@ -7670,7 +7833,7 @@
         <v/>
       </c>
       <c r="H75" s="14" t="str">
-        <f t="shared" ref="H75:H108" si="6">IF(I75&lt;&gt;"",IF(OR(B75&lt;&gt;"",J75&lt;&gt;""),CONCATENATE($C$7,"_",$A75,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I75" s="14" t="str">
@@ -7687,7 +7850,7 @@
       <c r="D76" s="14"/>
       <c r="E76" s="14"/>
       <c r="F76" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="G76" s="14" t="str">
@@ -7695,7 +7858,7 @@
         <v/>
       </c>
       <c r="H76" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="I76" s="14" t="str">
@@ -7712,7 +7875,7 @@
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="F77:F110" si="5">IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),CONCATENATE($C$7,"_",$A77,IF($G$4="Cuaderno de Estudio","_small",CONCATENATE(IF(I77="","","n"),IF(LEFT($G$5,1)="F",".jpg",".png")))),"")</f>
         <v/>
       </c>
       <c r="G77" s="14" t="str">
@@ -7720,7 +7883,7 @@
         <v/>
       </c>
       <c r="H77" s="14" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H77:H110" si="6">IF(I77&lt;&gt;"",IF(OR(B77&lt;&gt;"",J77&lt;&gt;""),CONCATENATE($C$7,"_",$A77,IF($G$4="Cuaderno de Estudio","_zoom",CONCATENATE("a",IF(LEFT($G$5,1)="F",".jpg",".png")))),""),"")</f>
         <v/>
       </c>
       <c r="I77" s="14" t="str">
@@ -8504,6 +8667,56 @@
       </c>
       <c r="J108" s="14"/>
       <c r="K108" s="15"/>
+    </row>
+    <row r="109" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G109" s="14" t="str">
+        <f>IF(F109&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H109" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I109" s="14" t="str">
+        <f>IF(OR(B109&lt;&gt;"",J109&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J109" s="14"/>
+      <c r="K109" s="15"/>
+    </row>
+    <row r="110" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="G110" s="14" t="str">
+        <f>IF(F110&lt;&gt;"",IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,5,FALSE),IF($G$5="F1",'Definición técnica de imagenes'!$E$15,'Definición técnica de imagenes'!$F$13)),'Definición técnica de imagenes'!$E$16),"")</f>
+        <v/>
+      </c>
+      <c r="H110" s="14" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="I110" s="14" t="str">
+        <f>IF(OR(B110&lt;&gt;"",J110&lt;&gt;""),IF($G$4="Recurso",IF(LEFT($G$5,1)="M",VLOOKUP($G$5,'Definición técnica de imagenes'!$A$3:$G$17,6,FALSE),IF($G$5="F1","","")),'Definición técnica de imagenes'!$F$16),"")</f>
+        <v/>
+      </c>
+      <c r="J110" s="14"/>
+      <c r="K110" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8529,10 +8742,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E10:E110">
       <formula1>"Vertical,Horizontal"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D110">
       <formula1>"Ilustración,Fotografía"</formula1>
     </dataValidation>
     <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:G3">
@@ -8567,12 +8780,14 @@
     <hyperlink ref="B24" r:id="rId12"/>
     <hyperlink ref="B25" r:id="rId13"/>
     <hyperlink ref="B26" r:id="rId14"/>
-    <hyperlink ref="B27" r:id="rId15"/>
-    <hyperlink ref="B28" r:id="rId16"/>
-    <hyperlink ref="B29" r:id="rId17"/>
+    <hyperlink ref="B29" r:id="rId15"/>
+    <hyperlink ref="B30" r:id="rId16"/>
+    <hyperlink ref="B31" r:id="rId17"/>
+    <hyperlink ref="B27" r:id="rId18"/>
+    <hyperlink ref="B28" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId18"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId20"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8602,25 +8817,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="91"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="99"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="41"/>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="102"/>
       <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:11" ht="63" x14ac:dyDescent="0.25">
@@ -8628,11 +8843,11 @@
         <v>44</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="100"/>
+      <c r="D3" s="107"/>
+      <c r="E3" s="108"/>
       <c r="F3" s="42"/>
       <c r="H3" s="32" t="s">
         <v>19</v>
@@ -8683,11 +8898,11 @@
       <c r="C5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="101" t="str">
+      <c r="D5" s="109" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_CO")</f>
         <v>LE_07_04_CO</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="42"/>
       <c r="H5" s="32" t="s">
         <v>23</v>
@@ -8732,12 +8947,12 @@
       <c r="C7" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="87" t="str">
+      <c r="D7" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D5,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_CO.xls</v>
       </c>
-      <c r="E7" s="87"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="32" t="s">
         <v>25</v>
       </c>
@@ -8831,14 +9046,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="91"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
       <c r="I13" s="32" t="s">
         <v>34</v>
       </c>
@@ -8871,12 +9086,12 @@
         <v>47</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="92" t="s">
+      <c r="C15" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
       <c r="J15" s="32">
         <v>12</v>
       </c>
@@ -8916,12 +9131,12 @@
       <c r="C17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="95" t="str">
+      <c r="D17" s="103" t="str">
         <f>CONCATENATE(H21,"_",I21,"_",J21,"_",K45)</f>
         <v>LE_07_04_REC10</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="97"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
       <c r="J17" s="32">
         <v>14</v>
       </c>
@@ -8937,12 +9152,12 @@
       <c r="C18" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="87" t="str">
+      <c r="D18" s="95" t="str">
         <f>CONCATENATE("SolicitudGrafica_",D17,".xls")</f>
         <v>SolicitudGrafica_LE_07_04_REC10.xls</v>
       </c>
-      <c r="E18" s="87"/>
-      <c r="F18" s="88"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="J18" s="32">
         <v>15</v>
       </c>
@@ -9333,41 +9548,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="111" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="103" t="s">
+      <c r="C1" s="111" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="D1" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="F1" s="111" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="G1" s="111" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="104" t="s">
+      <c r="H1" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
+      <c r="A2" s="111"/>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
       <c r="H2" s="51" t="s">
         <v>66</v>
       </c>
